--- a/data/environment.xlsx
+++ b/data/environment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="environment" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,6 +167,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -212,10 +221,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="21"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -594,7 +604,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -848,45 +858,45 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="16" thickBot="1">
+      <c r="A7" s="3">
         <v>2015</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1.2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.73</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>-1.2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>30</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="16" thickTop="1">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -1076,45 +1086,45 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="16" thickBot="1">
+      <c r="A13" s="3">
         <v>2016</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>33</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>0.83</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>-9.6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>-1.5</v>
       </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="3">
         <v>15</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="16" thickTop="1">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -1304,45 +1314,45 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19">
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="16" thickBot="1">
+      <c r="A19" s="3">
         <v>2017</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>33</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.18</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>-2.9</v>
       </c>
-      <c r="H19">
-        <v>0.5</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="3">
         <v>-0.5</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>90</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="16" thickTop="1">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1571,6 +1581,90 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
